--- a/Client/EXCEL/NpcData.xlsx
+++ b/Client/EXCEL/NpcData.xlsx
@@ -170,13 +170,14 @@
     <t>GrayKappa</t>
   </si>
   <si>
-    <t>NindoTestSprite</t>
-  </si>
-  <si>
     <t>BlueKappa</t>
   </si>
   <si>
     <t>RedKappa</t>
+  </si>
+  <si>
+    <t>uint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -622,10 +623,10 @@
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N19" sqref="N19"/>
+      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -728,7 +729,7 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
@@ -881,16 +882,16 @@
         <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>40</v>
@@ -937,22 +938,22 @@
         <v>17</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
@@ -993,22 +994,22 @@
         <v>17</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
@@ -1049,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
